--- a/BOM + Print List/Milo V1.5 BOM.xlsx
+++ b/BOM + Print List/Milo V1.5 BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="116">
   <si>
     <t>Category</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>Motion (main)</t>
+  </si>
+  <si>
+    <t>XY gantry plate</t>
+  </si>
+  <si>
+    <t>Z gantry plate</t>
   </si>
   <si>
     <t>200mm GT2 closed loop belt</t>
@@ -620,6 +626,10 @@
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -631,10 +641,6 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -2798,69 +2804,69 @@
       <c r="A54" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6">
+      <c r="C54" s="45"/>
+      <c r="D54" s="44">
         <v>1.0</v>
       </c>
-      <c r="E54" s="44"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="45"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
+      <c r="X54" s="45"/>
+      <c r="Y54" s="45"/>
+      <c r="Z54" s="45"/>
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="44" t="s">
         <v>79</v>
       </c>
       <c r="C55" s="45"/>
-      <c r="D55" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E55" s="44"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
+      <c r="D55" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="45"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
+      <c r="X55" s="45"/>
+      <c r="Y55" s="45"/>
+      <c r="Z55" s="45"/>
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
@@ -2869,17 +2875,17 @@
       <c r="B56" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="45"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E56" s="44"/>
+        <v>1.0</v>
+      </c>
+      <c r="E56" s="46"/>
       <c r="F56" s="4"/>
       <c r="G56" s="5"/>
-      <c r="H56" s="6"/>
+      <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="2"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
@@ -2903,11 +2909,11 @@
       <c r="B57" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="45"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="6">
         <v>2.0</v>
       </c>
-      <c r="E57" s="44"/>
+      <c r="E57" s="46"/>
       <c r="F57" s="4"/>
       <c r="G57" s="5"/>
       <c r="H57" s="6"/>
@@ -2937,11 +2943,11 @@
       <c r="B58" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="45"/>
+      <c r="C58" s="47"/>
       <c r="D58" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="E58" s="44"/>
+        <v>2.0</v>
+      </c>
+      <c r="E58" s="46"/>
       <c r="F58" s="4"/>
       <c r="G58" s="5"/>
       <c r="H58" s="6"/>
@@ -2971,17 +2977,17 @@
       <c r="B59" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="45"/>
+      <c r="C59" s="47"/>
       <c r="D59" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E59" s="44"/>
-      <c r="F59" s="46"/>
+        <v>2.0</v>
+      </c>
+      <c r="E59" s="46"/>
+      <c r="F59" s="4"/>
       <c r="G59" s="5"/>
       <c r="H59" s="6"/>
       <c r="I59" s="5"/>
       <c r="J59" s="6"/>
-      <c r="K59" s="47"/>
+      <c r="K59" s="2"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
@@ -3003,19 +3009,19 @@
         <v>77</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="45"/>
+        <v>84</v>
+      </c>
+      <c r="C60" s="47"/>
       <c r="D60" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E60" s="44"/>
-      <c r="F60" s="46"/>
+        <v>12.0</v>
+      </c>
+      <c r="E60" s="46"/>
+      <c r="F60" s="4"/>
       <c r="G60" s="5"/>
       <c r="H60" s="6"/>
       <c r="I60" s="5"/>
       <c r="J60" s="6"/>
-      <c r="K60" s="47"/>
+      <c r="K60" s="2"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
@@ -3037,19 +3043,19 @@
         <v>77</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="45"/>
+        <v>85</v>
+      </c>
+      <c r="C61" s="47"/>
       <c r="D61" s="6">
         <v>1.0</v>
       </c>
-      <c r="E61" s="44"/>
-      <c r="F61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="48"/>
       <c r="G61" s="5"/>
       <c r="H61" s="6"/>
       <c r="I61" s="5"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="47"/>
+      <c r="K61" s="49"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
@@ -3073,17 +3079,17 @@
       <c r="B62" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="45"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="E62" s="44"/>
-      <c r="F62" s="4"/>
+        <v>1.0</v>
+      </c>
+      <c r="E62" s="46"/>
+      <c r="F62" s="48"/>
       <c r="G62" s="5"/>
       <c r="H62" s="6"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="45"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="49"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
@@ -3107,17 +3113,17 @@
       <c r="B63" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="45"/>
+      <c r="C63" s="47"/>
       <c r="D63" s="6">
         <v>1.0</v>
       </c>
-      <c r="E63" s="44"/>
-      <c r="F63" s="4"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="48"/>
       <c r="G63" s="5"/>
       <c r="H63" s="6"/>
       <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="45"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="49"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -3141,17 +3147,17 @@
       <c r="B64" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="45"/>
+      <c r="C64" s="47"/>
       <c r="D64" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E64" s="44"/>
+        <v>6.0</v>
+      </c>
+      <c r="E64" s="46"/>
       <c r="F64" s="4"/>
       <c r="G64" s="5"/>
       <c r="H64" s="6"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
-      <c r="K64" s="45"/>
+      <c r="K64" s="47"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
@@ -3175,17 +3181,17 @@
       <c r="B65" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="45"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="E65" s="44"/>
+        <v>1.0</v>
+      </c>
+      <c r="E65" s="46"/>
       <c r="F65" s="4"/>
       <c r="G65" s="5"/>
       <c r="H65" s="6"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
-      <c r="K65" s="45"/>
+      <c r="K65" s="47"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
@@ -3209,32 +3215,32 @@
       <c r="B66" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="49">
-        <v>4.0</v>
-      </c>
-      <c r="E66" s="50"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E66" s="46"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="48"/>
-      <c r="N66" s="48"/>
-      <c r="O66" s="48"/>
-      <c r="P66" s="48"/>
-      <c r="Q66" s="48"/>
-      <c r="R66" s="48"/>
-      <c r="S66" s="48"/>
-      <c r="T66" s="48"/>
-      <c r="U66" s="48"/>
-      <c r="V66" s="48"/>
-      <c r="W66" s="48"/>
-      <c r="X66" s="48"/>
-      <c r="Y66" s="48"/>
-      <c r="Z66" s="48"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
     </row>
     <row r="67">
       <c r="A67" s="6" t="s">
@@ -3243,16 +3249,16 @@
       <c r="B67" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="45"/>
+      <c r="C67" s="47"/>
       <c r="D67" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E67" s="44"/>
+        <v>8.0</v>
+      </c>
+      <c r="E67" s="46"/>
       <c r="F67" s="4"/>
       <c r="G67" s="5"/>
       <c r="H67" s="6"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="6"/>
+      <c r="J67" s="5"/>
       <c r="K67" s="47"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
@@ -3278,148 +3284,146 @@
         <v>91</v>
       </c>
       <c r="C68" s="45"/>
-      <c r="D68" s="6">
+      <c r="D68" s="44">
+        <v>4.0</v>
+      </c>
+      <c r="E68" s="50"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="45"/>
+      <c r="L68" s="45"/>
+      <c r="M68" s="45"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="45"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="45"/>
+      <c r="S68" s="45"/>
+      <c r="T68" s="45"/>
+      <c r="U68" s="45"/>
+      <c r="V68" s="45"/>
+      <c r="W68" s="45"/>
+      <c r="X68" s="45"/>
+      <c r="Y68" s="45"/>
+      <c r="Z68" s="45"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="47"/>
+      <c r="D69" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E69" s="46"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="47"/>
+      <c r="D70" s="6">
         <v>6.0</v>
       </c>
-      <c r="E68" s="44"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="45"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="B69" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" s="52"/>
-      <c r="D69" s="51">
+      <c r="E70" s="46"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="52"/>
+      <c r="D71" s="51">
         <v>1.0</v>
       </c>
-      <c r="E69" s="53"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="55"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="55"/>
-      <c r="M69" s="55"/>
-      <c r="N69" s="55"/>
-      <c r="O69" s="55"/>
-      <c r="P69" s="55"/>
-      <c r="Q69" s="55"/>
-      <c r="R69" s="55"/>
-      <c r="S69" s="55"/>
-      <c r="T69" s="55"/>
-      <c r="U69" s="55"/>
-      <c r="V69" s="55"/>
-      <c r="W69" s="55"/>
-      <c r="X69" s="55"/>
-      <c r="Y69" s="55"/>
-      <c r="Z69" s="55"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="B70" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="C70" s="58"/>
-      <c r="D70" s="56">
-        <v>3.0</v>
-      </c>
-      <c r="E70" s="59"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="61"/>
-      <c r="N70" s="61"/>
-      <c r="O70" s="61"/>
-      <c r="P70" s="61"/>
-      <c r="Q70" s="61"/>
-      <c r="R70" s="61"/>
-      <c r="S70" s="61"/>
-      <c r="T70" s="61"/>
-      <c r="U70" s="61"/>
-      <c r="V70" s="61"/>
-      <c r="W70" s="61"/>
-      <c r="X70" s="61"/>
-      <c r="Y70" s="61"/>
-      <c r="Z70" s="61"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="B71" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="58"/>
-      <c r="D71" s="56">
-        <v>100.0</v>
-      </c>
-      <c r="E71" s="62"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="61"/>
-      <c r="P71" s="61"/>
-      <c r="Q71" s="61"/>
-      <c r="R71" s="61"/>
-      <c r="S71" s="61"/>
-      <c r="T71" s="61"/>
-      <c r="U71" s="61"/>
-      <c r="V71" s="61"/>
-      <c r="W71" s="61"/>
-      <c r="X71" s="61"/>
-      <c r="Y71" s="61"/>
-      <c r="Z71" s="61"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="55"/>
+      <c r="J71" s="55"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="55"/>
+      <c r="M71" s="55"/>
+      <c r="N71" s="55"/>
+      <c r="O71" s="55"/>
+      <c r="P71" s="55"/>
+      <c r="Q71" s="55"/>
+      <c r="R71" s="55"/>
+      <c r="S71" s="55"/>
+      <c r="T71" s="55"/>
+      <c r="U71" s="55"/>
+      <c r="V71" s="55"/>
+      <c r="W71" s="55"/>
+      <c r="X71" s="55"/>
+      <c r="Y71" s="55"/>
+      <c r="Z71" s="55"/>
     </row>
     <row r="72">
       <c r="A72" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="B72" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="57" t="s">
         <v>97</v>
       </c>
       <c r="C72" s="58"/>
       <c r="D72" s="56">
-        <v>1.0</v>
-      </c>
-      <c r="E72" s="59" t="s">
-        <v>98</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="E72" s="59"/>
       <c r="F72" s="60"/>
       <c r="G72" s="61"/>
       <c r="H72" s="61"/>
@@ -3444,16 +3448,16 @@
     </row>
     <row r="73">
       <c r="A73" s="56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C73" s="58"/>
       <c r="D73" s="56">
-        <v>1.0</v>
-      </c>
-      <c r="E73" s="59"/>
+        <v>100.0</v>
+      </c>
+      <c r="E73" s="62"/>
       <c r="F73" s="60"/>
       <c r="G73" s="61"/>
       <c r="H73" s="61"/>
@@ -3478,16 +3482,18 @@
     </row>
     <row r="74">
       <c r="A74" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="B74" s="63" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="B74" s="56" t="s">
+        <v>99</v>
       </c>
       <c r="C74" s="58"/>
       <c r="D74" s="56">
         <v>1.0</v>
       </c>
-      <c r="E74" s="59"/>
+      <c r="E74" s="59" t="s">
+        <v>100</v>
+      </c>
       <c r="F74" s="60"/>
       <c r="G74" s="61"/>
       <c r="H74" s="61"/>
@@ -3512,18 +3518,16 @@
     </row>
     <row r="75">
       <c r="A75" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C75" s="64" t="s">
-        <v>102</v>
-      </c>
+      <c r="C75" s="58"/>
       <c r="D75" s="56">
-        <v>15.0</v>
-      </c>
-      <c r="E75" s="62"/>
+        <v>1.0</v>
+      </c>
+      <c r="E75" s="59"/>
       <c r="F75" s="60"/>
       <c r="G75" s="61"/>
       <c r="H75" s="61"/>
@@ -3548,18 +3552,16 @@
     </row>
     <row r="76">
       <c r="A76" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="B76" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="C76" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="63" t="s">
         <v>102</v>
       </c>
+      <c r="C76" s="58"/>
       <c r="D76" s="56">
-        <v>10.0</v>
-      </c>
-      <c r="E76" s="62"/>
+        <v>1.0</v>
+      </c>
+      <c r="E76" s="59"/>
       <c r="F76" s="60"/>
       <c r="G76" s="61"/>
       <c r="H76" s="61"/>
@@ -3584,18 +3586,18 @@
     </row>
     <row r="77">
       <c r="A77" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="B77" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="C77" s="58"/>
-      <c r="D77" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="E77" s="59" t="s">
-        <v>106</v>
-      </c>
+      <c r="D77" s="56">
+        <v>15.0</v>
+      </c>
+      <c r="E77" s="62"/>
       <c r="F77" s="60"/>
       <c r="G77" s="61"/>
       <c r="H77" s="61"/>
@@ -3620,16 +3622,16 @@
     </row>
     <row r="78">
       <c r="A78" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="B78" s="56" t="s">
-        <v>107</v>
+        <v>96</v>
+      </c>
+      <c r="B78" s="57" t="s">
+        <v>105</v>
       </c>
       <c r="C78" s="64" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D78" s="56">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E78" s="62"/>
       <c r="F78" s="60"/>
@@ -3656,18 +3658,18 @@
     </row>
     <row r="79">
       <c r="A79" s="56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B79" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" s="58"/>
+      <c r="D79" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="D79" s="56">
-        <v>3.0</v>
-      </c>
-      <c r="E79" s="59"/>
       <c r="F79" s="60"/>
       <c r="G79" s="61"/>
       <c r="H79" s="61"/>
@@ -3691,76 +3693,148 @@
       <c r="Z79" s="61"/>
     </row>
     <row r="80">
-      <c r="A80" s="65" t="s">
+      <c r="A80" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="B80" s="65" t="s">
+      <c r="D80" s="56">
+        <v>3.0</v>
+      </c>
+      <c r="E80" s="62"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="61"/>
+      <c r="L80" s="61"/>
+      <c r="M80" s="61"/>
+      <c r="N80" s="61"/>
+      <c r="O80" s="61"/>
+      <c r="P80" s="61"/>
+      <c r="Q80" s="61"/>
+      <c r="R80" s="61"/>
+      <c r="S80" s="61"/>
+      <c r="T80" s="61"/>
+      <c r="U80" s="61"/>
+      <c r="V80" s="61"/>
+      <c r="W80" s="61"/>
+      <c r="X80" s="61"/>
+      <c r="Y80" s="61"/>
+      <c r="Z80" s="61"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C80" s="66"/>
-      <c r="D80" s="65">
+      <c r="C81" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="56">
+        <v>3.0</v>
+      </c>
+      <c r="E81" s="59"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="61"/>
+      <c r="L81" s="61"/>
+      <c r="M81" s="61"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="61"/>
+      <c r="P81" s="61"/>
+      <c r="Q81" s="61"/>
+      <c r="R81" s="61"/>
+      <c r="S81" s="61"/>
+      <c r="T81" s="61"/>
+      <c r="U81" s="61"/>
+      <c r="V81" s="61"/>
+      <c r="W81" s="61"/>
+      <c r="X81" s="61"/>
+      <c r="Y81" s="61"/>
+      <c r="Z81" s="61"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="66"/>
+      <c r="D82" s="65">
         <v>1.0</v>
       </c>
-      <c r="E80" s="67" t="s">
+      <c r="E82" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="F82" s="68"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="69"/>
+      <c r="I82" s="69"/>
+      <c r="J82" s="69"/>
+      <c r="K82" s="69"/>
+      <c r="L82" s="69"/>
+      <c r="M82" s="69"/>
+      <c r="N82" s="69"/>
+      <c r="O82" s="69"/>
+      <c r="P82" s="69"/>
+      <c r="Q82" s="69"/>
+      <c r="R82" s="69"/>
+      <c r="S82" s="69"/>
+      <c r="T82" s="69"/>
+      <c r="U82" s="69"/>
+      <c r="V82" s="69"/>
+      <c r="W82" s="69"/>
+      <c r="X82" s="69"/>
+      <c r="Y82" s="69"/>
+      <c r="Z82" s="69"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="F80" s="68"/>
-      <c r="G80" s="69"/>
-      <c r="H80" s="69"/>
-      <c r="I80" s="69"/>
-      <c r="J80" s="69"/>
-      <c r="K80" s="69"/>
-      <c r="L80" s="69"/>
-      <c r="M80" s="69"/>
-      <c r="N80" s="69"/>
-      <c r="O80" s="69"/>
-      <c r="P80" s="69"/>
-      <c r="Q80" s="69"/>
-      <c r="R80" s="69"/>
-      <c r="S80" s="69"/>
-      <c r="T80" s="69"/>
-      <c r="U80" s="69"/>
-      <c r="V80" s="69"/>
-      <c r="W80" s="69"/>
-      <c r="X80" s="69"/>
-      <c r="Y80" s="69"/>
-      <c r="Z80" s="69"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="B81" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" s="66"/>
-      <c r="D81" s="65">
+      <c r="B83" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="66"/>
+      <c r="D83" s="65">
         <v>1.0</v>
       </c>
-      <c r="E81" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="F81" s="68"/>
-      <c r="G81" s="69"/>
-      <c r="H81" s="69"/>
-      <c r="I81" s="69"/>
-      <c r="J81" s="69"/>
-      <c r="K81" s="69"/>
-      <c r="L81" s="69"/>
-      <c r="M81" s="69"/>
-      <c r="N81" s="69"/>
-      <c r="O81" s="69"/>
-      <c r="P81" s="69"/>
-      <c r="Q81" s="69"/>
-      <c r="R81" s="69"/>
-      <c r="S81" s="69"/>
-      <c r="T81" s="69"/>
-      <c r="U81" s="69"/>
-      <c r="V81" s="69"/>
-      <c r="W81" s="69"/>
-      <c r="X81" s="69"/>
-      <c r="Y81" s="69"/>
-      <c r="Z81" s="69"/>
+      <c r="E83" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="F83" s="68"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="69"/>
+      <c r="K83" s="69"/>
+      <c r="L83" s="69"/>
+      <c r="M83" s="69"/>
+      <c r="N83" s="69"/>
+      <c r="O83" s="69"/>
+      <c r="P83" s="69"/>
+      <c r="Q83" s="69"/>
+      <c r="R83" s="69"/>
+      <c r="S83" s="69"/>
+      <c r="T83" s="69"/>
+      <c r="U83" s="69"/>
+      <c r="V83" s="69"/>
+      <c r="W83" s="69"/>
+      <c r="X83" s="69"/>
+      <c r="Y83" s="69"/>
+      <c r="Z83" s="69"/>
     </row>
     <row r="86">
       <c r="F86" s="70"/>
